--- a/final_results/1/gitlab/gitlab_ci_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_ci_statistics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>8.890000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -497,23 +497,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -522,22 +520,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>4607</v>
+        <v>145</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>846</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>9.460000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/final_results/1/gitlab/gitlab_ci_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_ci_statistics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>2.33</v>
+        <v>2.81</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -497,21 +497,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>4.84</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>487</v>
       </c>
       <c r="C4" t="n">
-        <v>145</v>
+        <v>4466</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>846</v>
       </c>
       <c r="F4" t="n">
-        <v>14.5</v>
+        <v>9.17</v>
       </c>
       <c r="G4" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/final_results/1/gitlab/gitlab_ci_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_ci_statistics.xlsx
@@ -525,7 +525,7 @@
         <v>487</v>
       </c>
       <c r="C4" t="n">
-        <v>4466</v>
+        <v>4469</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>846</v>
       </c>
       <c r="F4" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>

--- a/final_results/1/gitlab/gitlab_ci_statistics.xlsx
+++ b/final_results/1/gitlab/gitlab_ci_statistics.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C4" t="n">
         <v>4463</v>
@@ -534,7 +534,7 @@
         <v>846</v>
       </c>
       <c r="F4" t="n">
-        <v>9.16</v>
+        <v>9.15</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
